--- a/data/trans_dic/P53_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P53_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior</t>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,37; 20,6</t>
+          <t>6,07; 16,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 24,02</t>
+          <t>6,72; 17,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 27,71</t>
+          <t>5,95; 31,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 32,01</t>
+          <t>5,94; 36,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 21,91</t>
+          <t>4,9; 14,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 24,07</t>
+          <t>11,59; 22,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 26,99</t>
+          <t>13,51; 24,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 28,54</t>
+          <t>14,35; 26,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 19,86</t>
+          <t>14,94; 28,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,74; 21,64</t>
+          <t>6,81; 17,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,9; 24,3</t>
+          <t>10,2; 17,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 27,19</t>
+          <t>11,47; 19,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 25,86</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 27,42</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 14,41</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 24,13</t>
+          <t>9,05; 24,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,72; 36,28</t>
+          <t>10,51; 28,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,53</t>
+          <t>9,05; 25,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 31,38</t>
+          <t>9,91; 25,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,52; 33,58</t>
+          <t>5,14; 17,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,75; 32,38</t>
+          <t>13,79; 27,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,79; 33,13</t>
+          <t>14,17; 27,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,65; 35,93</t>
+          <t>13,72; 28,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 26,45</t>
+          <t>14,63; 29,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 31,0</t>
+          <t>16,85; 44,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,4</t>
+          <t>13,08; 23,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 30,99</t>
+          <t>14,2; 24,58</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 24,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,02; 24,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 26,38</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>39,83%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>37,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>39,49%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,39; 59,91</t>
+          <t>22,26; 75,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,78; 61,42</t>
+          <t>23,13; 77,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,24; 53,33</t>
+          <t>23,83; 76,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 57,27</t>
+          <t>25,66; 78,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 46,13</t>
+          <t>14,71; 76,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,31; 47,14</t>
+          <t>13,66; 46,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,47; 50,93</t>
+          <t>14,89; 47,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 49,71</t>
+          <t>13,14; 44,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 48,52</t>
+          <t>13,75; 43,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 49,81</t>
+          <t>8,25; 37,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,18; 46,59</t>
+          <t>24,22; 59,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,0; 49,44</t>
+          <t>25,27; 61,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 60,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 62,04</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 56,71</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>19,33%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 23,45</t>
+          <t>12,06; 24,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 28,04</t>
+          <t>13,06; 26,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 25,39</t>
+          <t>12,59; 27,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 29,54</t>
+          <t>12,4; 29,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,41</t>
+          <t>8,93; 23,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,13</t>
+          <t>15,02; 23,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,84</t>
+          <t>16,48; 25,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,09</t>
+          <t>16,7; 25,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 23,48</t>
+          <t>17,6; 26,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 26,15</t>
+          <t>12,93; 25,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 25,94</t>
+          <t>14,56; 22,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 28,52</t>
+          <t>16,19; 24,41</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 24,94</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 26,77</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 20,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con &lt;=  900 euros de ingresos mensuales netos en el mes anterior (tasa de respuesta: 90,32%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>36119</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45665</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47384</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53858</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44016</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66481</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87923</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>76314</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>78064</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>56684</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>102600</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>133589</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>123698</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>131922</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>100700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21268; 56642</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27668; 72200</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21393; 114159</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22125; 136011</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23561; 71877</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>46519; 90799</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63409; 116814</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56343; 103249</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56412; 106411</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35397; 88925</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>76712; 132563</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>101041; 169962</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>91282; 194459</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>90377; 205750</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>69095; 144285</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>44636</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>59447</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48544</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50595</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>38777</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64171</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>79962</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62541</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67569</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>96466</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108807</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>139408</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>111085</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>118165</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>135244</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26158; 71213</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35613; 96215</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27014; 76810</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30381; 79521</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19262; 65323</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44389; 87587</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55704; 108470</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42478; 88002</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44751; 90820</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>64288; 170655</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>79896; 142949</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>103914; 179899</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>83241; 150419</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>85887; 152028</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>95095; 199555</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39752</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49253</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38282</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45092</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19977</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18763</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20022</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20529</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>59728</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75242</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>57045</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>63613</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>65622</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18880; 64245</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23543; 78815</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18972; 60975</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21964; 67322</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15906; 82648</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9721; 32870</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12974; 41448</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9414; 31752</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10377; 32529</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8801; 40440</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37783; 93374</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47734; 115216</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>37139; 91075</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>41698; 99932</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>34662; 121807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>120506</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>154365</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>134210</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>148045</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>127886</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>150629</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>193874</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>157618</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>165655</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>173680</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>271135</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>348239</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>291828</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>313700</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>301566</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87312; 178721</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111301; 224615</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>92828; 205044</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>94865; 223566</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>86134; 222239</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>119305; 186527</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>156545; 237506</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>129217; 194684</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>133602; 203940</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>130344; 252941</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>221138; 339145</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>291689; 439825</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>239219; 376972</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>255127; 408017</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>230205; 406958</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
